--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -140,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,24 +415,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="3.1640625" customWidth="1"/>
+    <col min="9" max="10" width="3.125" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +458,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -473,7 +478,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -496,7 +501,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -522,7 +527,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -548,7 +553,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -574,7 +579,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>107</v>
       </c>
@@ -626,7 +631,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -652,7 +657,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -678,7 +683,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -704,7 +709,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -730,7 +735,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -741,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>67283415</v>
+        <v>67238415</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
@@ -756,7 +761,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -782,7 +787,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>114</v>
       </c>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -113,8 +108,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,11 +131,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,26 +420,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="3.125" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +465,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>101</v>
       </c>
@@ -478,7 +485,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>102</v>
       </c>
@@ -501,7 +508,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>103</v>
       </c>
@@ -527,7 +534,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>104</v>
       </c>
@@ -553,7 +560,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>105</v>
       </c>
@@ -579,7 +586,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>106</v>
       </c>
@@ -605,7 +612,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>107</v>
       </c>
@@ -631,7 +638,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -657,7 +664,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -683,7 +690,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -709,7 +716,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -735,7 +742,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -761,7 +768,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -787,7 +794,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -812,6 +819,26 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>52176834</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>61537284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Participant ID</t>
   </si>
@@ -412,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,26 +425,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="3.1640625" customWidth="1"/>
+    <col min="9" max="10" width="3.125" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +470,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -485,7 +490,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -508,7 +513,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -534,7 +539,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -560,7 +565,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -586,7 +591,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>107</v>
       </c>
@@ -638,7 +643,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -664,7 +669,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -690,7 +695,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -716,7 +721,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -742,7 +747,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -768,7 +773,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -794,7 +799,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -820,7 +825,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>115</v>
       </c>
@@ -837,6 +842,145 @@
         <v>21</v>
       </c>
       <c r="F16" s="2">
+        <v>61537284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <v>46273851</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>35742816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>52648713</v>
+      </c>
+      <c r="E18" s="2">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>73185426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43815267</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>87516324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>81372456</v>
+      </c>
+      <c r="E20" s="2">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2">
+        <v>82453617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>37184562</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>56324178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>47832651</v>
+      </c>
+      <c r="E22" s="2">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <v>86453127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>85743612</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>63785124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>67238415</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2">
         <v>61537284</v>
       </c>
     </row>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>117</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,6 +886,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>118</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -900,6 +906,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>119</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -917,68 +926,80 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>120</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>37184562</v>
       </c>
       <c r="E21" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>56324178</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>121</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>47832651</v>
       </c>
       <c r="E22" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
         <v>86453127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>122</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>85743612</v>
       </c>
       <c r="E23" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>63785124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>123</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>67238415</v>
       </c>
       <c r="E24" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
         <v>61537284</v>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>Participant ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1008,86 @@
         <v>61537284</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>47832651</v>
+      </c>
+      <c r="E25" s="2">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2">
+        <v>76385412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>125</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>85743612</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45863712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>83675124</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5">
+        <v>52648713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>127</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>86451732</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="-27040" yWindow="880" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,7 +130,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -138,6 +139,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -420,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,23 +434,23 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="3.125" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +476,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>101</v>
       </c>
@@ -493,7 +496,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>102</v>
       </c>
@@ -516,7 +519,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>103</v>
       </c>
@@ -542,7 +545,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>104</v>
       </c>
@@ -568,7 +571,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>105</v>
       </c>
@@ -594,7 +597,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>106</v>
       </c>
@@ -620,7 +623,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>107</v>
       </c>
@@ -646,7 +649,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -672,7 +675,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -724,7 +727,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -750,7 +753,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -776,7 +779,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -802,7 +805,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>115</v>
       </c>
@@ -848,7 +851,7 @@
         <v>61537284</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>116</v>
       </c>
@@ -868,7 +871,7 @@
         <v>35742816</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>117</v>
       </c>
@@ -888,7 +891,7 @@
         <v>73185426</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>118</v>
       </c>
@@ -908,7 +911,7 @@
         <v>87516324</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>119</v>
       </c>
@@ -928,7 +931,7 @@
         <v>82453617</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>120</v>
       </c>
@@ -948,7 +951,7 @@
         <v>56324178</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>121</v>
       </c>
@@ -968,7 +971,7 @@
         <v>86453127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>122</v>
       </c>
@@ -988,7 +991,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>123</v>
       </c>
@@ -998,7 +1001,7 @@
       <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>67238415</v>
       </c>
       <c r="E24" s="2">
@@ -1008,7 +1011,7 @@
         <v>61537284</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>124</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>47832651</v>
       </c>
       <c r="E25" s="2">
@@ -1028,7 +1031,7 @@
         <v>76385412</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>125</v>
       </c>
@@ -1038,17 +1041,17 @@
       <c r="C26">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>85743612</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <v>45863712</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>126</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="C27">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>83675124</v>
       </c>
       <c r="E27" s="2">
@@ -1068,7 +1071,7 @@
         <v>52648713</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>127</v>
       </c>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27040" yWindow="880" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-27045" yWindow="885" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,18 +90,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,7 +129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -139,8 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -423,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,23 +432,23 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="10" width="3.1640625" customWidth="1"/>
+    <col min="9" max="10" width="3.125" customWidth="1"/>
     <col min="11" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +474,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -496,7 +494,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -519,7 +517,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -545,7 +543,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -571,7 +569,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -597,7 +595,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -623,7 +621,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>107</v>
       </c>
@@ -649,7 +647,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -675,7 +673,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -701,7 +699,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -727,7 +725,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -753,7 +751,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -779,7 +777,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -805,7 +803,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -831,7 +829,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>115</v>
       </c>
@@ -851,7 +849,7 @@
         <v>61537284</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>116</v>
       </c>
@@ -871,7 +869,7 @@
         <v>35742816</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>117</v>
       </c>
@@ -891,7 +889,7 @@
         <v>73185426</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>118</v>
       </c>
@@ -911,7 +909,7 @@
         <v>87516324</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>119</v>
       </c>
@@ -931,7 +929,7 @@
         <v>82453617</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>120</v>
       </c>
@@ -951,7 +949,7 @@
         <v>56324178</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>121</v>
       </c>
@@ -971,7 +969,7 @@
         <v>86453127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>122</v>
       </c>
@@ -991,7 +989,7 @@
         <v>63785124</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>123</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>61537284</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>124</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>76385412</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>125</v>
       </c>
@@ -1047,11 +1045,11 @@
       <c r="E26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="2">
         <v>45863712</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>126</v>
       </c>
@@ -1067,11 +1065,11 @@
       <c r="E27" s="2">
         <v>21</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>52648713</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>127</v>
       </c>

--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -5,14 +5,15 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="885" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="-27045" yWindow="885" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="YoungAdults" sheetId="1" r:id="rId1"/>
+    <sheet name="OlderAdults" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>Participant ID</t>
   </si>
@@ -52,11 +53,17 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>BOLD order</t>
+  </si>
+  <si>
+    <t>ISS order</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -129,16 +136,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -431,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -449,22 +477,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3"/>
@@ -475,42 +503,42 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
         <v>12345678</v>
       </c>
-      <c r="E2" s="5">
-        <v>21</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="8">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7">
         <v>63785124</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
         <v>83675124</v>
       </c>
-      <c r="E3" s="5">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="8">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9">
         <v>61537284</v>
       </c>
       <c r="G3" s="2"/>
@@ -518,22 +546,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
         <v>86451732</v>
       </c>
-      <c r="E4" s="5">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="8">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9">
         <v>82316547</v>
       </c>
       <c r="G4" s="2"/>
@@ -544,22 +572,22 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
         <v>52176834</v>
       </c>
-      <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="9">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
         <v>76385412</v>
       </c>
       <c r="G5" s="2"/>
@@ -570,22 +598,22 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
         <v>46273851</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="9">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
         <v>45863712</v>
       </c>
       <c r="G6" s="2"/>
@@ -596,22 +624,22 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
         <v>52648713</v>
       </c>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>61438725</v>
       </c>
       <c r="G7" s="2"/>
@@ -622,22 +650,22 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="12">
         <v>107</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="12">
         <v>43815267</v>
       </c>
-      <c r="E8" s="7">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="13">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13">
         <v>35742816</v>
       </c>
       <c r="G8" s="2"/>
@@ -648,22 +676,22 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <v>108</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
         <v>81372456</v>
       </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
         <v>73185426</v>
       </c>
       <c r="G9" s="2"/>
@@ -674,22 +702,22 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>109</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
         <v>37184562</v>
       </c>
-      <c r="E10" s="2">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="9">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9">
         <v>87516324</v>
       </c>
       <c r="G10" s="2"/>
@@ -700,22 +728,22 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>110</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7">
         <v>47832651</v>
       </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="9">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9">
         <v>82453617</v>
       </c>
       <c r="G11" s="2"/>
@@ -726,22 +754,22 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
         <v>85743612</v>
       </c>
-      <c r="E12" s="2">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="9">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9">
         <v>56324178</v>
       </c>
       <c r="G12" s="2"/>
@@ -752,22 +780,22 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>112</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
         <v>67238415</v>
       </c>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
         <v>86453127</v>
       </c>
       <c r="G13" s="2"/>
@@ -778,22 +806,22 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <v>113</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
         <v>83675124</v>
       </c>
-      <c r="E14" s="2">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="9">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9">
         <v>76385412</v>
       </c>
       <c r="G14" s="2"/>
@@ -804,22 +832,22 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>114</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7">
         <v>86451732</v>
       </c>
-      <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="9">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9">
         <v>45863712</v>
       </c>
       <c r="G15" s="2"/>
@@ -830,262 +858,262 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <v>115</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
         <v>52176834</v>
       </c>
-      <c r="E16" s="2">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="9">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9">
         <v>61537284</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>116</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
         <v>46273851</v>
       </c>
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="9">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9">
         <v>35742816</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>117</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
         <v>52648713</v>
       </c>
-      <c r="E18" s="2">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="9">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9">
         <v>73185426</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <v>118</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8">
         <v>43815267</v>
       </c>
-      <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="9">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9">
         <v>87516324</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <v>119</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8">
         <v>81372456</v>
       </c>
-      <c r="E20" s="2">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="9">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9">
         <v>82453617</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>120</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
         <v>37184562</v>
       </c>
-      <c r="E21" s="2">
-        <v>21</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="9">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9">
         <v>56324178</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <v>121</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
         <v>47832651</v>
       </c>
-      <c r="E22" s="2">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="9">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
         <v>86453127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>122</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
         <v>85743612</v>
       </c>
-      <c r="E23" s="2">
-        <v>21</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="9">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7">
         <v>63785124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>123</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10">
         <v>67238415</v>
       </c>
-      <c r="E24" s="2">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="9">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9">
         <v>61537284</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="9">
         <v>124</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10">
         <v>47832651</v>
       </c>
-      <c r="E25" s="2">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="9">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9">
         <v>76385412</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <v>125</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10">
         <v>85743612</v>
       </c>
-      <c r="E26" s="2">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="9">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9">
         <v>45863712</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="9">
         <v>126</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7">
+        <v>12</v>
+      </c>
+      <c r="D27" s="10">
         <v>83675124</v>
       </c>
-      <c r="E27" s="2">
-        <v>21</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="9">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9">
         <v>52648713</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="9">
         <v>127</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7">
         <v>86451732</v>
       </c>
-      <c r="E28" s="2">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="9">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1098,4 +1126,453 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>201</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
+        <v>234567</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>202</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>367524</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>203</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>645732</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>204</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>527634</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>205</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>462735</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>206</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>526473</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>207</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>435267</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>208</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>372456</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>209</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>374562</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>210</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7">
+        <v>473265</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>211</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>574362</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>212</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>672345</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>213</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>367524</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>214</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7">
+        <v>645732</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>215</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>527634</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>216</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
+        <v>462735</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>217</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>526473</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>218</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8">
+        <v>435267</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>219</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8">
+        <v>372456</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>220</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>374562</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>221</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>473265</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>222</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>574362</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>223</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10">
+        <v>672345</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>224</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10">
+        <v>473265</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>225</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10">
+        <v>574362</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music and Memory/Testing/fMRITestingOrder.xlsx
+++ b/Music and Memory/Testing/fMRITestingOrder.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>Participant ID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>ISS order</t>
+  </si>
+  <si>
+    <t>LN</t>
   </si>
 </sst>
 </file>
@@ -136,12 +139,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,7 +470,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
@@ -477,22 +479,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3"/>
@@ -503,42 +505,42 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
         <v>12345678</v>
       </c>
-      <c r="E2" s="8">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="7">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6">
         <v>63785124</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
         <v>83675124</v>
       </c>
-      <c r="E3" s="8">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="7">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8">
         <v>61537284</v>
       </c>
       <c r="G3" s="2"/>
@@ -546,22 +548,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
         <v>86451732</v>
       </c>
-      <c r="E4" s="8">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="7">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8">
         <v>82316547</v>
       </c>
       <c r="G4" s="2"/>
@@ -572,22 +574,22 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
         <v>52176834</v>
       </c>
-      <c r="E5" s="9">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="8">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8">
         <v>76385412</v>
       </c>
       <c r="G5" s="2"/>
@@ -598,22 +600,22 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
         <v>46273851</v>
       </c>
-      <c r="E6" s="9">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="8">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
         <v>45863712</v>
       </c>
       <c r="G6" s="2"/>
@@ -624,22 +626,22 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>106</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
         <v>52648713</v>
       </c>
-      <c r="E7" s="9">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8">
         <v>61438725</v>
       </c>
       <c r="G7" s="2"/>
@@ -650,22 +652,22 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>107</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>43815267</v>
       </c>
-      <c r="E8" s="13">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="12">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12">
         <v>35742816</v>
       </c>
       <c r="G8" s="2"/>
@@ -676,22 +678,22 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>108</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
         <v>81372456</v>
       </c>
-      <c r="E9" s="9">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8">
         <v>73185426</v>
       </c>
       <c r="G9" s="2"/>
@@ -702,22 +704,22 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>109</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
         <v>37184562</v>
       </c>
-      <c r="E10" s="9">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="8">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8">
         <v>87516324</v>
       </c>
       <c r="G10" s="2"/>
@@ -728,22 +730,22 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>110</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
         <v>47832651</v>
       </c>
-      <c r="E11" s="9">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="8">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8">
         <v>82453617</v>
       </c>
       <c r="G11" s="2"/>
@@ -754,22 +756,22 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>111</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
         <v>85743612</v>
       </c>
-      <c r="E12" s="9">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="8">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8">
         <v>56324178</v>
       </c>
       <c r="G12" s="2"/>
@@ -780,22 +782,22 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>112</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
         <v>67238415</v>
       </c>
-      <c r="E13" s="9">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="8">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8">
         <v>86453127</v>
       </c>
       <c r="G13" s="2"/>
@@ -806,22 +808,22 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>113</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6">
         <v>83675124</v>
       </c>
-      <c r="E14" s="9">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="8">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8">
         <v>76385412</v>
       </c>
       <c r="G14" s="2"/>
@@ -832,22 +834,22 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>114</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
         <v>86451732</v>
       </c>
-      <c r="E15" s="9">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="8">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
         <v>45863712</v>
       </c>
       <c r="G15" s="2"/>
@@ -858,262 +860,262 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>115</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6">
         <v>52176834</v>
       </c>
-      <c r="E16" s="9">
-        <v>21</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="8">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8">
         <v>61537284</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>116</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
         <v>46273851</v>
       </c>
-      <c r="E17" s="9">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="8">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8">
         <v>35742816</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>117</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
         <v>52648713</v>
       </c>
-      <c r="E18" s="9">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="8">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8">
         <v>73185426</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>118</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
         <v>43815267</v>
       </c>
-      <c r="E19" s="9">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="8">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8">
         <v>87516324</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>119</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
         <v>81372456</v>
       </c>
-      <c r="E20" s="9">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="8">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8">
         <v>82453617</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>120</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
         <v>37184562</v>
       </c>
-      <c r="E21" s="9">
-        <v>21</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="8">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8">
         <v>56324178</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>121</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
         <v>47832651</v>
       </c>
-      <c r="E22" s="9">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8">
         <v>86453127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>122</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6">
         <v>85743612</v>
       </c>
-      <c r="E23" s="9">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="8">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6">
         <v>63785124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>123</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>21</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9">
         <v>67238415</v>
       </c>
-      <c r="E24" s="9">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="8">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8">
         <v>61537284</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>124</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7">
-        <v>12</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
         <v>47832651</v>
       </c>
-      <c r="E25" s="9">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="8">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8">
         <v>76385412</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>125</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9">
         <v>85743612</v>
       </c>
-      <c r="E26" s="9">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="8">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8">
         <v>45863712</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>126</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7">
-        <v>12</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9">
         <v>83675124</v>
       </c>
-      <c r="E27" s="9">
-        <v>21</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="8">
+        <v>21</v>
+      </c>
+      <c r="F27" s="8">
         <v>52648713</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>127</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7">
-        <v>21</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6">
         <v>86451732</v>
       </c>
-      <c r="E28" s="9">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="8">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1133,442 +1135,494 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="11.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="11.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>201</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
         <v>234567</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>202</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
         <v>367524</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>203</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
         <v>645732</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>204</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
         <v>527634</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6">
+        <v>21</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>205</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
         <v>462735</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6">
+        <v>21</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>206</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
         <v>526473</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6">
+        <v>21</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>207</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
         <v>435267</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="7">
+        <v>12</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>208</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
         <v>372456</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6">
+        <v>21</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>209</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
         <v>374562</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6">
+        <v>12</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>210</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
         <v>473265</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6">
+        <v>21</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>211</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
         <v>574362</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6">
+        <v>12</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>212</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
         <v>672345</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6">
+        <v>21</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>213</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6">
         <v>367524</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6">
+        <v>12</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>214</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
         <v>645732</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6">
+        <v>21</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>215</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6">
         <v>527634</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>216</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
         <v>462735</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="6">
+        <v>21</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>217</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
         <v>526473</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>218</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
         <v>435267</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6">
+        <v>21</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>219</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
         <v>372456</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="6">
+        <v>12</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>220</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
         <v>374562</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>221</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
         <v>473265</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6">
+        <v>21</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>222</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6">
         <v>574362</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>223</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>21</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9">
         <v>672345</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="6">
+        <v>21</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>224</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7">
-        <v>12</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
         <v>473265</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6">
+        <v>12</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>225</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9">
         <v>574362</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="6">
+        <v>21</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
